--- a/deployment/Omaha_Cal_Info_CP04OSSM_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP04OSSM_00004.xlsx
@@ -30,7 +30,7 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="237">
   <si>
     <t>Ref Des</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>CP04OSSM-SBD11-01-MOPAK0000</t>
+  </si>
+  <si>
+    <t>CP04OSSM-00004-MOPAK</t>
   </si>
 </sst>
 </file>
@@ -2492,7 +2495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2527,7 +2530,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2853,8 +2856,8 @@
   <dimension ref="A1:U367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2934,8 +2937,8 @@
       <c r="E3" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>155</v>
+      <c r="F3" s="130" t="s">
+        <v>236</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>137</v>
@@ -6203,7 +6206,7 @@
       <c r="I130" s="1"/>
       <c r="L130" s="74"/>
     </row>
-    <row r="131" spans="1:12" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="41" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A131" s="85" t="s">
         <v>149</v>
       </c>
@@ -6233,7 +6236,7 @@
       </c>
       <c r="L131" s="74"/>
     </row>
-    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A132" s="46" t="s">
         <v>149</v>
       </c>
